--- a/dfnew.xlsx
+++ b/dfnew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daffa\Desktop\MODUL\Skripsi\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25935A7C-120F-4567-ABA8-821278EC75EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E92DDBF-88DD-43A4-95ED-9556AFEF0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6431362-3DA0-4590-87F9-4B5154C039CC}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +544,7 @@
       <c r="I2" s="2">
         <v>1.1017999999999999</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>3.0790000000000002</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
       <c r="I3" s="2">
         <v>0.93920000000000003</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>0.6</v>
       </c>
     </row>
@@ -608,7 +608,7 @@
       <c r="I4" s="2">
         <v>1.2122999999999999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>1.5960000000000001</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
       <c r="I5" s="2">
         <v>1.1153</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>7.23</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="I6" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>0.64300000000000002</v>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="I7" s="2">
         <v>0.86260000000000003</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>4.1829999999999998</v>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="I8" s="2">
         <v>1.1128</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>0.35199999999999998</v>
       </c>
     </row>
@@ -768,7 +768,7 @@
       <c r="I9" s="2">
         <v>0.86850000000000005</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>2.1139999999999999</v>
       </c>
     </row>
@@ -800,7 +800,7 @@
       <c r="I10" s="2">
         <v>1.0580000000000001</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>0.53800000000000003</v>
       </c>
     </row>
@@ -832,7 +832,7 @@
       <c r="I11" s="2">
         <v>1.2392000000000001</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>1.0660000000000001</v>
       </c>
     </row>
@@ -864,8 +864,8 @@
       <c r="I12" s="2">
         <v>1.8236000000000001</v>
       </c>
-      <c r="J12" s="2">
-        <v>0.73899999999999999</v>
+      <c r="J12">
+        <v>2.6709999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,8 +896,8 @@
       <c r="I13" s="2">
         <v>1.1355999999999999</v>
       </c>
-      <c r="J13" s="2">
-        <v>1.149</v>
+      <c r="J13">
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -928,8 +928,8 @@
       <c r="I14" s="2">
         <v>1.6478999999999999</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.05</v>
+      <c r="J14">
+        <v>0.255</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -960,8 +960,8 @@
       <c r="I15" s="2">
         <v>1.2656000000000001</v>
       </c>
-      <c r="J15" s="2">
-        <v>1.3979999999999999</v>
+      <c r="J15">
+        <v>3.161</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -992,8 +992,8 @@
       <c r="I16" s="2">
         <v>1.2883</v>
       </c>
-      <c r="J16" s="2">
-        <v>0.35499999999999998</v>
+      <c r="J16">
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1024,8 +1024,8 @@
       <c r="I17" s="2">
         <v>1.2505999999999999</v>
       </c>
-      <c r="J17" s="2">
-        <v>32.552</v>
+      <c r="J17">
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1056,8 +1056,8 @@
       <c r="I18" s="2">
         <v>1.6278999999999999</v>
       </c>
-      <c r="J18" s="2">
-        <v>3.2789999999999999</v>
+      <c r="J18">
+        <v>3.9540000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1088,8 +1088,8 @@
       <c r="I19" s="2">
         <v>1.1798999999999999</v>
       </c>
-      <c r="J19" s="2">
-        <v>0.48099999999999998</v>
+      <c r="J19">
+        <v>2.0920000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1120,8 +1120,8 @@
       <c r="I20" s="2">
         <v>1.1063000000000001</v>
       </c>
-      <c r="J20" s="2">
-        <v>2.6709999999999998</v>
+      <c r="J20">
+        <v>1.002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1152,8 +1152,8 @@
       <c r="I21" s="2">
         <v>1.0011000000000001</v>
       </c>
-      <c r="J21" s="2">
-        <v>0.20300000000000001</v>
+      <c r="J21">
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1184,8 +1184,8 @@
       <c r="I22" s="2">
         <v>1.034</v>
       </c>
-      <c r="J22" s="2">
-        <v>0.255</v>
+      <c r="J22">
+        <v>1.149</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1216,8 +1216,8 @@
       <c r="I23" s="2">
         <v>0.94059999999999999</v>
       </c>
-      <c r="J23" s="2">
-        <v>3.161</v>
+      <c r="J23">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1248,8 +1248,8 @@
       <c r="I24" s="2">
         <v>1.2619</v>
       </c>
-      <c r="J24" s="2">
-        <v>0.70099999999999996</v>
+      <c r="J24">
+        <v>1.3979999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1280,8 +1280,8 @@
       <c r="I25" s="2">
         <v>1.1536999999999999</v>
       </c>
-      <c r="J25" s="2">
-        <v>0.54800000000000004</v>
+      <c r="J25">
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1312,8 +1312,8 @@
       <c r="I26" s="2">
         <v>0.94820000000000004</v>
       </c>
-      <c r="J26" s="2">
-        <v>3.9540000000000002</v>
+      <c r="J26">
+        <v>32.552</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1344,8 +1344,8 @@
       <c r="I27" s="2">
         <v>1.1135999999999999</v>
       </c>
-      <c r="J27" s="2">
-        <v>2.0920000000000001</v>
+      <c r="J27">
+        <v>3.2789999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1376,8 +1376,8 @@
       <c r="I28" s="2">
         <v>0.85619999999999996</v>
       </c>
-      <c r="J28" s="2">
-        <v>1.002</v>
+      <c r="J28">
+        <v>0.48099999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/dfnew.xlsx
+++ b/dfnew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E92DDBF-88DD-43A4-95ED-9556AFEF0633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D77E1-3859-41DF-A658-74EA21F4DC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
+    <workbookView xWindow="7935" yWindow="2280" windowWidth="14385" windowHeight="12285" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Y(Indeks Kesehatan)</t>
   </si>
@@ -57,9 +46,6 @@
   </si>
   <si>
     <t>X6(Akses Air Minum Layak)</t>
-  </si>
-  <si>
-    <t>X7(Usia Harapan Hidup)</t>
   </si>
   <si>
     <t>X8(Pengeluaran Perkapita)</t>
@@ -464,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6431362-3DA0-4590-87F9-4B5154C039CC}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,12 +465,11 @@
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,11 +497,8 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.83090000000000008</v>
       </c>
@@ -539,16 +521,13 @@
         <v>0.95730000000000004</v>
       </c>
       <c r="H2" s="2">
-        <v>0.74269999999999992</v>
-      </c>
-      <c r="I2" s="2">
         <v>1.1017999999999999</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.81220000000000003</v>
       </c>
@@ -571,16 +550,13 @@
         <v>0.92269999999999996</v>
       </c>
       <c r="H3" s="2">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="I3" s="2">
         <v>0.93920000000000003</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.83140000000000003</v>
       </c>
@@ -603,16 +579,13 @@
         <v>0.96950000000000003</v>
       </c>
       <c r="H4" s="2">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="I4" s="2">
         <v>1.2122999999999999</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>1.5960000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.79459999999999997</v>
       </c>
@@ -635,16 +608,13 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="H5" s="2">
-        <v>0.71920000000000006</v>
-      </c>
-      <c r="I5" s="2">
         <v>1.1153</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>7.23</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.80459999999999998</v>
       </c>
@@ -667,16 +637,13 @@
         <v>0.94389999999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>0.7256999999999999</v>
-      </c>
-      <c r="I6" s="2">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>0.64300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.77819999999999989</v>
       </c>
@@ -699,16 +666,13 @@
         <v>0.85650000000000004</v>
       </c>
       <c r="H7" s="2">
-        <v>0.70790000000000008</v>
-      </c>
-      <c r="I7" s="2">
         <v>0.86260000000000003</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>4.1829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>0.80720000000000003</v>
       </c>
@@ -731,16 +695,13 @@
         <v>0.98519999999999996</v>
       </c>
       <c r="H8" s="2">
-        <v>0.72760000000000002</v>
-      </c>
-      <c r="I8" s="2">
         <v>1.1128</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>0.79769999999999996</v>
       </c>
@@ -763,16 +724,13 @@
         <v>0.81129999999999991</v>
       </c>
       <c r="H9" s="2">
-        <v>0.7206999999999999</v>
-      </c>
-      <c r="I9" s="2">
         <v>0.86850000000000005</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>0.80230000000000001</v>
       </c>
@@ -795,16 +753,13 @@
         <v>0.97770000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>0.72459999999999991</v>
-      </c>
-      <c r="I10" s="2">
         <v>1.0580000000000001</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>0.8095</v>
       </c>
@@ -827,16 +782,13 @@
         <v>0.98109999999999997</v>
       </c>
       <c r="H11" s="2">
-        <v>0.72900000000000009</v>
-      </c>
-      <c r="I11" s="2">
         <v>1.2392000000000001</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.84230000000000005</v>
       </c>
@@ -859,16 +811,13 @@
         <v>0.97670000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>0.75040000000000007</v>
-      </c>
-      <c r="I12" s="2">
         <v>1.8236000000000001</v>
       </c>
-      <c r="J12">
+      <c r="I12">
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.79220000000000002</v>
       </c>
@@ -891,16 +840,13 @@
         <v>0.94340000000000002</v>
       </c>
       <c r="H13" s="2">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="I13" s="2">
         <v>1.1355999999999999</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>0.85349999999999993</v>
       </c>
@@ -923,16 +869,13 @@
         <v>0.98769999999999991</v>
       </c>
       <c r="H14" s="2">
-        <v>0.75790000000000002</v>
-      </c>
-      <c r="I14" s="2">
         <v>1.6478999999999999</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>0.255</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>0.83279999999999998</v>
       </c>
@@ -955,16 +898,13 @@
         <v>0.99609999999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>0.74450000000000005</v>
-      </c>
-      <c r="I15" s="2">
         <v>1.2656000000000001</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <v>3.161</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>0.83849999999999991</v>
       </c>
@@ -987,16 +927,13 @@
         <v>0.97360000000000002</v>
       </c>
       <c r="H16" s="2">
-        <v>0.748</v>
-      </c>
-      <c r="I16" s="2">
         <v>1.2883</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.81140000000000001</v>
       </c>
@@ -1019,16 +956,13 @@
         <v>0.99569999999999992</v>
       </c>
       <c r="H17" s="2">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="I17" s="2">
         <v>1.2505999999999999</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <v>0.54800000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>0.84489999999999998</v>
       </c>
@@ -1051,16 +985,13 @@
         <v>0.99560000000000004</v>
       </c>
       <c r="H18" s="2">
-        <v>0.75230000000000008</v>
-      </c>
-      <c r="I18" s="2">
         <v>1.6278999999999999</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <v>3.9540000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.81310000000000004</v>
       </c>
@@ -1083,16 +1014,13 @@
         <v>0.98739999999999994</v>
       </c>
       <c r="H19" s="2">
-        <v>0.73109999999999997</v>
-      </c>
-      <c r="I19" s="2">
         <v>1.1798999999999999</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>2.0920000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.80969999999999998</v>
       </c>
@@ -1115,16 +1043,13 @@
         <v>0.95840000000000003</v>
       </c>
       <c r="H20" s="2">
-        <v>0.72920000000000007</v>
-      </c>
-      <c r="I20" s="2">
         <v>1.1063000000000001</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>1.002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>0.83120000000000005</v>
       </c>
@@ -1147,16 +1072,13 @@
         <v>0.96569999999999989</v>
       </c>
       <c r="H21" s="2">
-        <v>0.74290000000000012</v>
-      </c>
-      <c r="I21" s="2">
         <v>1.0011000000000001</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.78090000000000004</v>
       </c>
@@ -1179,16 +1101,13 @@
         <v>0.93379999999999996</v>
       </c>
       <c r="H22" s="2">
-        <v>0.71050000000000002</v>
-      </c>
-      <c r="I22" s="2">
         <v>1.034</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>1.149</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>0.79830000000000001</v>
       </c>
@@ -1211,16 +1130,13 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="H23" s="2">
-        <v>0.72170000000000001</v>
-      </c>
-      <c r="I23" s="2">
         <v>0.94059999999999999</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.79180000000000006</v>
       </c>
@@ -1243,16 +1159,13 @@
         <v>0.85400000000000009</v>
       </c>
       <c r="H24" s="2">
-        <v>0.71739999999999993</v>
-      </c>
-      <c r="I24" s="2">
         <v>1.2619</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>1.3979999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>0.81420000000000003</v>
       </c>
@@ -1275,16 +1188,13 @@
         <v>0.99219999999999997</v>
       </c>
       <c r="H25" s="2">
-        <v>0.73239999999999994</v>
-      </c>
-      <c r="I25" s="2">
         <v>1.1536999999999999</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>0.35499999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.79290000000000005</v>
       </c>
@@ -1307,16 +1217,13 @@
         <v>0.85719999999999996</v>
       </c>
       <c r="H26" s="2">
-        <v>0.71829999999999994</v>
-      </c>
-      <c r="I26" s="2">
         <v>0.94820000000000004</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <v>32.552</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.81400000000000006</v>
       </c>
@@ -1339,16 +1246,13 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="H27" s="2">
-        <v>0.7319</v>
-      </c>
-      <c r="I27" s="2">
         <v>1.1135999999999999</v>
       </c>
-      <c r="J27">
+      <c r="I27">
         <v>3.2789999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0.76849999999999996</v>
       </c>
@@ -1371,12 +1275,9 @@
         <v>0.89029999999999998</v>
       </c>
       <c r="H28" s="2">
-        <v>0.70189999999999997</v>
-      </c>
-      <c r="I28" s="2">
         <v>0.85619999999999996</v>
       </c>
-      <c r="J28">
+      <c r="I28">
         <v>0.48099999999999998</v>
       </c>
     </row>

--- a/dfnew.xlsx
+++ b/dfnew.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WIN 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0D77E1-3859-41DF-A658-74EA21F4DC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80152123-0D33-44E2-AEC1-F5958FF83881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="2280" windowWidth="14385" windowHeight="12285" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200" activeTab="1" xr2:uid="{FD4AB852-0DE1-4453-BC53-30B4B7A9E0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -452,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6431362-3DA0-4590-87F9-4B5154C039CC}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1221,7 @@
         <v>0.94820000000000004</v>
       </c>
       <c r="I26">
-        <v>32.552</v>
+        <v>3.2551999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,6 +1280,939 @@
       </c>
       <c r="I28">
         <v>0.48099999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D51875-FBAE-42EA-AEBC-D4D1EB661F04}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H1:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>Sheet1!B2*Sheet1!B2</f>
+        <v>0.332559654536706</v>
+      </c>
+      <c r="B1">
+        <f>Sheet1!C2*Sheet1!C2</f>
+        <v>121</v>
+      </c>
+      <c r="C1">
+        <f>Sheet1!D2*Sheet1!D2</f>
+        <v>14.220373122081</v>
+      </c>
+      <c r="D1">
+        <f>Sheet1!E2*Sheet1!E2</f>
+        <v>3.1256825616000001</v>
+      </c>
+      <c r="E1">
+        <f>Sheet1!F2*Sheet1!F2</f>
+        <v>4.5495256929743233</v>
+      </c>
+      <c r="F1">
+        <f>Sheet1!G2*Sheet1!G2</f>
+        <v>0.91642329000000011</v>
+      </c>
+      <c r="G1">
+        <f>Sheet1!H2*Sheet1!H2</f>
+        <v>1.2139632399999998</v>
+      </c>
+      <c r="H1">
+        <f>Sheet1!I2*Sheet1!I2</f>
+        <v>9.4802410000000013</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>Sheet1!B3*Sheet1!B3</f>
+        <v>7.4661240276550689E-2</v>
+      </c>
+      <c r="B2">
+        <f>Sheet1!C3*Sheet1!C3</f>
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <f>Sheet1!D3*Sheet1!D3</f>
+        <v>3.5337984255999997</v>
+      </c>
+      <c r="D2">
+        <f>Sheet1!E3*Sheet1!E3</f>
+        <v>1.7050352928999997</v>
+      </c>
+      <c r="E2">
+        <f>Sheet1!F3*Sheet1!F3</f>
+        <v>2.0725661458828561</v>
+      </c>
+      <c r="F2">
+        <f>Sheet1!G3*Sheet1!G3</f>
+        <v>0.8513752899999999</v>
+      </c>
+      <c r="G2">
+        <f>Sheet1!H3*Sheet1!H3</f>
+        <v>0.8820966400000001</v>
+      </c>
+      <c r="H2">
+        <f>Sheet1!I3*Sheet1!I3</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>Sheet1!B4*Sheet1!B4</f>
+        <v>0.72834407573754556</v>
+      </c>
+      <c r="B3">
+        <f>Sheet1!C4*Sheet1!C4</f>
+        <v>2809</v>
+      </c>
+      <c r="C3">
+        <f>Sheet1!D4*Sheet1!D4</f>
+        <v>10.704923898243999</v>
+      </c>
+      <c r="D3">
+        <f>Sheet1!E4*Sheet1!E4</f>
+        <v>1.5003310144000004</v>
+      </c>
+      <c r="E3">
+        <f>Sheet1!F4*Sheet1!F4</f>
+        <v>7.1350413978644722</v>
+      </c>
+      <c r="F3">
+        <f>Sheet1!G4*Sheet1!G4</f>
+        <v>0.93993025000000008</v>
+      </c>
+      <c r="G3">
+        <f>Sheet1!H4*Sheet1!H4</f>
+        <v>1.4696712899999997</v>
+      </c>
+      <c r="H3">
+        <f>Sheet1!I4*Sheet1!I4</f>
+        <v>2.5472160000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>Sheet1!B5*Sheet1!B5</f>
+        <v>0.95596782487293031</v>
+      </c>
+      <c r="B4">
+        <f>Sheet1!C5*Sheet1!C5</f>
+        <v>900</v>
+      </c>
+      <c r="C4">
+        <f>Sheet1!D5*Sheet1!D5</f>
+        <v>31.852907370243997</v>
+      </c>
+      <c r="D4">
+        <f>Sheet1!E5*Sheet1!E5</f>
+        <v>7.3474607843999999</v>
+      </c>
+      <c r="E4">
+        <f>Sheet1!F5*Sheet1!F5</f>
+        <v>4.3352265911882846</v>
+      </c>
+      <c r="F4">
+        <f>Sheet1!G5*Sheet1!G5</f>
+        <v>0.84456100000000012</v>
+      </c>
+      <c r="G4">
+        <f>Sheet1!H5*Sheet1!H5</f>
+        <v>1.24389409</v>
+      </c>
+      <c r="H4">
+        <f>Sheet1!I5*Sheet1!I5</f>
+        <v>52.272900000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>Sheet1!B6*Sheet1!B6</f>
+        <v>2.9164994867565425E-2</v>
+      </c>
+      <c r="B5">
+        <f>Sheet1!C6*Sheet1!C6</f>
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <f>Sheet1!D6*Sheet1!D6</f>
+        <v>1.5815150018889996</v>
+      </c>
+      <c r="D5">
+        <f>Sheet1!E6*Sheet1!E6</f>
+        <v>2.0014043841000002</v>
+      </c>
+      <c r="E5">
+        <f>Sheet1!F6*Sheet1!F6</f>
+        <v>0.79020262694197207</v>
+      </c>
+      <c r="F5">
+        <f>Sheet1!G6*Sheet1!G6</f>
+        <v>0.89094720999999988</v>
+      </c>
+      <c r="G5">
+        <f>Sheet1!H6*Sheet1!H6</f>
+        <v>0.95062499999999994</v>
+      </c>
+      <c r="H5">
+        <f>Sheet1!I6*Sheet1!I6</f>
+        <v>0.41344900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>Sheet1!B7*Sheet1!B7</f>
+        <v>0.20832599669224897</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!C7*Sheet1!C7</f>
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f>Sheet1!D7*Sheet1!D7</f>
+        <v>6.6501578641000005</v>
+      </c>
+      <c r="D6">
+        <f>Sheet1!E7*Sheet1!E7</f>
+        <v>14.7468288256</v>
+      </c>
+      <c r="E6">
+        <f>Sheet1!F7*Sheet1!F7</f>
+        <v>0.45095511331599297</v>
+      </c>
+      <c r="F6">
+        <f>Sheet1!G7*Sheet1!G7</f>
+        <v>0.73359225000000006</v>
+      </c>
+      <c r="G6">
+        <f>Sheet1!H7*Sheet1!H7</f>
+        <v>0.74407876000000006</v>
+      </c>
+      <c r="H6">
+        <f>Sheet1!I7*Sheet1!I7</f>
+        <v>17.497488999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Sheet1!B8*Sheet1!B8</f>
+        <v>0.24114946599503578</v>
+      </c>
+      <c r="B7">
+        <f>Sheet1!C8*Sheet1!C8</f>
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <f>Sheet1!D8*Sheet1!D8</f>
+        <v>5.4735175980249995</v>
+      </c>
+      <c r="D7">
+        <f>Sheet1!E8*Sheet1!E8</f>
+        <v>0.96927963039999987</v>
+      </c>
+      <c r="E7">
+        <f>Sheet1!F8*Sheet1!F8</f>
+        <v>5.6469953833304034</v>
+      </c>
+      <c r="F7">
+        <f>Sheet1!G8*Sheet1!G8</f>
+        <v>0.97061903999999988</v>
+      </c>
+      <c r="G7">
+        <f>Sheet1!H8*Sheet1!H8</f>
+        <v>1.2383238400000001</v>
+      </c>
+      <c r="H7">
+        <f>Sheet1!I8*Sheet1!I8</f>
+        <v>0.12390399999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>Sheet1!B9*Sheet1!B9</f>
+        <v>0.1793186650164498</v>
+      </c>
+      <c r="B8">
+        <f>Sheet1!C9*Sheet1!C9</f>
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <f>Sheet1!D9*Sheet1!D9</f>
+        <v>7.0182500432040005</v>
+      </c>
+      <c r="D8">
+        <f>Sheet1!E9*Sheet1!E9</f>
+        <v>9.4499063649000021</v>
+      </c>
+      <c r="E8">
+        <f>Sheet1!F9*Sheet1!F9</f>
+        <v>0.74267932106417944</v>
+      </c>
+      <c r="F8">
+        <f>Sheet1!G9*Sheet1!G9</f>
+        <v>0.6582076899999999</v>
+      </c>
+      <c r="G8">
+        <f>Sheet1!H9*Sheet1!H9</f>
+        <v>0.75429225000000011</v>
+      </c>
+      <c r="H8">
+        <f>Sheet1!I9*Sheet1!I9</f>
+        <v>4.4689959999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>Sheet1!B10*Sheet1!B10</f>
+        <v>0.4642580997865714</v>
+      </c>
+      <c r="B9">
+        <f>Sheet1!C10*Sheet1!C10</f>
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <f>Sheet1!D10*Sheet1!D10</f>
+        <v>3.5798267138489996</v>
+      </c>
+      <c r="D9">
+        <f>Sheet1!E10*Sheet1!E10</f>
+        <v>4.1620488120999992</v>
+      </c>
+      <c r="E9">
+        <f>Sheet1!F10*Sheet1!F10</f>
+        <v>0.86011166025771957</v>
+      </c>
+      <c r="F9">
+        <f>Sheet1!G10*Sheet1!G10</f>
+        <v>0.95589729000000001</v>
+      </c>
+      <c r="G9">
+        <f>Sheet1!H10*Sheet1!H10</f>
+        <v>1.119364</v>
+      </c>
+      <c r="H9">
+        <f>Sheet1!I10*Sheet1!I10</f>
+        <v>0.28944400000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>Sheet1!B11*Sheet1!B11</f>
+        <v>0.51392955956732944</v>
+      </c>
+      <c r="B10">
+        <f>Sheet1!C11*Sheet1!C11</f>
+        <v>676</v>
+      </c>
+      <c r="C10">
+        <f>Sheet1!D11*Sheet1!D11</f>
+        <v>6.4609556692809988</v>
+      </c>
+      <c r="D10">
+        <f>Sheet1!E11*Sheet1!E11</f>
+        <v>2.7297648400000005</v>
+      </c>
+      <c r="E10">
+        <f>Sheet1!F11*Sheet1!F11</f>
+        <v>2.366854307230728</v>
+      </c>
+      <c r="F10">
+        <f>Sheet1!G11*Sheet1!G11</f>
+        <v>0.96255720999999994</v>
+      </c>
+      <c r="G10">
+        <f>Sheet1!H11*Sheet1!H11</f>
+        <v>1.5356166400000002</v>
+      </c>
+      <c r="H10">
+        <f>Sheet1!I11*Sheet1!I11</f>
+        <v>1.1363560000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>Sheet1!B12*Sheet1!B12</f>
+        <v>9.5045550297619935E-2</v>
+      </c>
+      <c r="B11">
+        <f>Sheet1!C12*Sheet1!C12</f>
+        <v>1521</v>
+      </c>
+      <c r="C11">
+        <f>Sheet1!D12*Sheet1!D12</f>
+        <v>6.0988698289209999</v>
+      </c>
+      <c r="D11">
+        <f>Sheet1!E12*Sheet1!E12</f>
+        <v>2.8113228899999995E-2</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!F12*Sheet1!F12</f>
+        <v>216.93950028347686</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!G12*Sheet1!G12</f>
+        <v>0.95394288999999999</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!H12*Sheet1!H12</f>
+        <v>3.3255169600000003</v>
+      </c>
+      <c r="H11">
+        <f>Sheet1!I12*Sheet1!I12</f>
+        <v>7.1342409999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>Sheet1!B13*Sheet1!B13</f>
+        <v>8.6761569440075414E-3</v>
+      </c>
+      <c r="B12">
+        <f>Sheet1!C13*Sheet1!C13</f>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <f>Sheet1!D13*Sheet1!D13</f>
+        <v>4.3887317049000008E-2</v>
+      </c>
+      <c r="D12">
+        <f>Sheet1!E13*Sheet1!E13</f>
+        <v>1.2879980099999999E-2</v>
+      </c>
+      <c r="E12">
+        <f>Sheet1!F13*Sheet1!F13</f>
+        <v>3.4074056565506652</v>
+      </c>
+      <c r="F12">
+        <f>Sheet1!G13*Sheet1!G13</f>
+        <v>0.89000356000000003</v>
+      </c>
+      <c r="G12">
+        <f>Sheet1!H13*Sheet1!H13</f>
+        <v>1.2895873599999998</v>
+      </c>
+      <c r="H12">
+        <f>Sheet1!I13*Sheet1!I13</f>
+        <v>4.1209000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>Sheet1!B14*Sheet1!B14</f>
+        <v>0.28796232753979262</v>
+      </c>
+      <c r="B13">
+        <f>Sheet1!C14*Sheet1!C14</f>
+        <v>2116</v>
+      </c>
+      <c r="C13">
+        <f>Sheet1!D14*Sheet1!D14</f>
+        <v>6.8391768931239998</v>
+      </c>
+      <c r="D13">
+        <f>Sheet1!E14*Sheet1!E14</f>
+        <v>4.2687692100000008E-2</v>
+      </c>
+      <c r="E13">
+        <f>Sheet1!F14*Sheet1!F14</f>
+        <v>160.21425747502519</v>
+      </c>
+      <c r="F13">
+        <f>Sheet1!G14*Sheet1!G14</f>
+        <v>0.97555128999999985</v>
+      </c>
+      <c r="G13">
+        <f>Sheet1!H14*Sheet1!H14</f>
+        <v>2.7155744099999999</v>
+      </c>
+      <c r="H13">
+        <f>Sheet1!I14*Sheet1!I14</f>
+        <v>6.5024999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>Sheet1!B15*Sheet1!B15</f>
+        <v>3.6869402003753479E-2</v>
+      </c>
+      <c r="B14">
+        <f>Sheet1!C15*Sheet1!C15</f>
+        <v>484</v>
+      </c>
+      <c r="C14">
+        <f>Sheet1!D15*Sheet1!D15</f>
+        <v>1.154597528484</v>
+      </c>
+      <c r="D14">
+        <f>Sheet1!E15*Sheet1!E15</f>
+        <v>1.4042249999999999E-2</v>
+      </c>
+      <c r="E14">
+        <f>Sheet1!F15*Sheet1!F15</f>
+        <v>82.223114421406834</v>
+      </c>
+      <c r="F14">
+        <f>Sheet1!G15*Sheet1!G15</f>
+        <v>0.99221521000000001</v>
+      </c>
+      <c r="G14">
+        <f>Sheet1!H15*Sheet1!H15</f>
+        <v>1.6017433600000002</v>
+      </c>
+      <c r="H14">
+        <f>Sheet1!I15*Sheet1!I15</f>
+        <v>9.9919209999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>Sheet1!B16*Sheet1!B16</f>
+        <v>4.1752598744000599E-3</v>
+      </c>
+      <c r="B15">
+        <f>Sheet1!C16*Sheet1!C16</f>
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <f>Sheet1!D16*Sheet1!D16</f>
+        <v>0.33491452352399997</v>
+      </c>
+      <c r="D15">
+        <f>Sheet1!E16*Sheet1!E16</f>
+        <v>1.5421329000000004E-3</v>
+      </c>
+      <c r="E15">
+        <f>Sheet1!F16*Sheet1!F16</f>
+        <v>217.17617432583143</v>
+      </c>
+      <c r="F15">
+        <f>Sheet1!G16*Sheet1!G16</f>
+        <v>0.94789696000000001</v>
+      </c>
+      <c r="G15">
+        <f>Sheet1!H16*Sheet1!H16</f>
+        <v>1.6597168900000001</v>
+      </c>
+      <c r="H15">
+        <f>Sheet1!I16*Sheet1!I16</f>
+        <v>0.49140099999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>Sheet1!B17*Sheet1!B17</f>
+        <v>7.3814190395819369E-3</v>
+      </c>
+      <c r="B16">
+        <f>Sheet1!C17*Sheet1!C17</f>
+        <v>121</v>
+      </c>
+      <c r="C16">
+        <f>Sheet1!D17*Sheet1!D17</f>
+        <v>0.11942415408399999</v>
+      </c>
+      <c r="D16">
+        <f>Sheet1!E17*Sheet1!E17</f>
+        <v>1.3957695999999998E-3</v>
+      </c>
+      <c r="E16">
+        <f>Sheet1!F17*Sheet1!F17</f>
+        <v>85.561509638840121</v>
+      </c>
+      <c r="F16">
+        <f>Sheet1!G17*Sheet1!G17</f>
+        <v>0.99141848999999982</v>
+      </c>
+      <c r="G16">
+        <f>Sheet1!H17*Sheet1!H17</f>
+        <v>1.5640003599999999</v>
+      </c>
+      <c r="H16">
+        <f>Sheet1!I17*Sheet1!I17</f>
+        <v>0.30030400000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>Sheet1!B18*Sheet1!B18</f>
+        <v>0.12649604069328216</v>
+      </c>
+      <c r="B17">
+        <f>Sheet1!C18*Sheet1!C18</f>
+        <v>676</v>
+      </c>
+      <c r="C17">
+        <f>Sheet1!D18*Sheet1!D18</f>
+        <v>4.6695104190250003</v>
+      </c>
+      <c r="D17">
+        <f>Sheet1!E18*Sheet1!E18</f>
+        <v>4.0116084099999998E-2</v>
+      </c>
+      <c r="E17">
+        <f>Sheet1!F18*Sheet1!F18</f>
+        <v>116.39995587268699</v>
+      </c>
+      <c r="F17">
+        <f>Sheet1!G18*Sheet1!G18</f>
+        <v>0.9912193600000001</v>
+      </c>
+      <c r="G17">
+        <f>Sheet1!H18*Sheet1!H18</f>
+        <v>2.6500584099999998</v>
+      </c>
+      <c r="H17">
+        <f>Sheet1!I18*Sheet1!I18</f>
+        <v>15.634116000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>Sheet1!B19*Sheet1!B19</f>
+        <v>3.2750639694167803E-3</v>
+      </c>
+      <c r="B18">
+        <f>Sheet1!C19*Sheet1!C19</f>
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <f>Sheet1!D19*Sheet1!D19</f>
+        <v>0.13105703232400001</v>
+      </c>
+      <c r="D18">
+        <f>Sheet1!E19*Sheet1!E19</f>
+        <v>2.3280625000000003E-3</v>
+      </c>
+      <c r="E18">
+        <f>Sheet1!F19*Sheet1!F19</f>
+        <v>56.29446474224811</v>
+      </c>
+      <c r="F18">
+        <f>Sheet1!G19*Sheet1!G19</f>
+        <v>0.97495875999999992</v>
+      </c>
+      <c r="G18">
+        <f>Sheet1!H19*Sheet1!H19</f>
+        <v>1.3921640099999999</v>
+      </c>
+      <c r="H18">
+        <f>Sheet1!I19*Sheet1!I19</f>
+        <v>4.3764640000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>Sheet1!B20*Sheet1!B20</f>
+        <v>1.1492050720185307E-2</v>
+      </c>
+      <c r="B19">
+        <f>Sheet1!C20*Sheet1!C20</f>
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <f>Sheet1!D20*Sheet1!D20</f>
+        <v>0.55198658976400006</v>
+      </c>
+      <c r="D19">
+        <f>Sheet1!E20*Sheet1!E20</f>
+        <v>2.9449992100000006E-2</v>
+      </c>
+      <c r="E19">
+        <f>Sheet1!F20*Sheet1!F20</f>
+        <v>18.743182948561802</v>
+      </c>
+      <c r="F19">
+        <f>Sheet1!G20*Sheet1!G20</f>
+        <v>0.91853056000000011</v>
+      </c>
+      <c r="G19">
+        <f>Sheet1!H20*Sheet1!H20</f>
+        <v>1.2238996900000001</v>
+      </c>
+      <c r="H19">
+        <f>Sheet1!I20*Sheet1!I20</f>
+        <v>1.0040039999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>Sheet1!B21*Sheet1!B21</f>
+        <v>7.1001332429795713E-2</v>
+      </c>
+      <c r="B20">
+        <f>Sheet1!C21*Sheet1!C21</f>
+        <v>144</v>
+      </c>
+      <c r="C20">
+        <f>Sheet1!D21*Sheet1!D21</f>
+        <v>1.4678606718090002</v>
+      </c>
+      <c r="D20">
+        <f>Sheet1!E21*Sheet1!E21</f>
+        <v>1.2333435135999999</v>
+      </c>
+      <c r="E20">
+        <f>Sheet1!F21*Sheet1!F21</f>
+        <v>1.1901474776678147</v>
+      </c>
+      <c r="F20">
+        <f>Sheet1!G21*Sheet1!G21</f>
+        <v>0.93257648999999976</v>
+      </c>
+      <c r="G20">
+        <f>Sheet1!H21*Sheet1!H21</f>
+        <v>1.0022012100000002</v>
+      </c>
+      <c r="H20">
+        <f>Sheet1!I21*Sheet1!I21</f>
+        <v>0.54612099999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>Sheet1!B22*Sheet1!B22</f>
+        <v>4.6104149384264485E-2</v>
+      </c>
+      <c r="B21">
+        <f>Sheet1!C22*Sheet1!C22</f>
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f>Sheet1!D22*Sheet1!D22</f>
+        <v>1.827438941584</v>
+      </c>
+      <c r="D21">
+        <f>Sheet1!E22*Sheet1!E22</f>
+        <v>1.4501939775999999</v>
+      </c>
+      <c r="E21">
+        <f>Sheet1!F22*Sheet1!F22</f>
+        <v>1.2601341405432687</v>
+      </c>
+      <c r="F21">
+        <f>Sheet1!G22*Sheet1!G22</f>
+        <v>0.87198243999999991</v>
+      </c>
+      <c r="G21">
+        <f>Sheet1!H22*Sheet1!H22</f>
+        <v>1.069156</v>
+      </c>
+      <c r="H21">
+        <f>Sheet1!I22*Sheet1!I22</f>
+        <v>1.320201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>Sheet1!B23*Sheet1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>Sheet1!C23*Sheet1!C23</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>Sheet1!D23*Sheet1!D23</f>
+        <v>0.19105116483599999</v>
+      </c>
+      <c r="D22">
+        <f>Sheet1!E23*Sheet1!E23</f>
+        <v>1.0201</v>
+      </c>
+      <c r="E22">
+        <f>Sheet1!F23*Sheet1!F23</f>
+        <v>0.18728670212332121</v>
+      </c>
+      <c r="F22">
+        <f>Sheet1!G23*Sheet1!G23</f>
+        <v>0.68807024999999999</v>
+      </c>
+      <c r="G22">
+        <f>Sheet1!H23*Sheet1!H23</f>
+        <v>0.88472835999999999</v>
+      </c>
+      <c r="H22">
+        <f>Sheet1!I23*Sheet1!I23</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>Sheet1!B24*Sheet1!B24</f>
+        <v>4.9724496238047033E-2</v>
+      </c>
+      <c r="B23">
+        <f>Sheet1!C24*Sheet1!C24</f>
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <f>Sheet1!D24*Sheet1!D24</f>
+        <v>1.0934968556159999</v>
+      </c>
+      <c r="D23">
+        <f>Sheet1!E24*Sheet1!E24</f>
+        <v>0.68184654760000007</v>
+      </c>
+      <c r="E23">
+        <f>Sheet1!F24*Sheet1!F24</f>
+        <v>1.6037286680778087</v>
+      </c>
+      <c r="F23">
+        <f>Sheet1!G24*Sheet1!G24</f>
+        <v>0.72931600000000019</v>
+      </c>
+      <c r="G23">
+        <f>Sheet1!H24*Sheet1!H24</f>
+        <v>1.59239161</v>
+      </c>
+      <c r="H23">
+        <f>Sheet1!I24*Sheet1!I24</f>
+        <v>1.9544039999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>Sheet1!B25*Sheet1!B25</f>
+        <v>0.28468333192297374</v>
+      </c>
+      <c r="B24">
+        <f>Sheet1!C25*Sheet1!C25</f>
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <f>Sheet1!D25*Sheet1!D25</f>
+        <v>2.6893736847610001</v>
+      </c>
+      <c r="D24">
+        <f>Sheet1!E25*Sheet1!E25</f>
+        <v>3.5870466025000001</v>
+      </c>
+      <c r="E24">
+        <f>Sheet1!F25*Sheet1!F25</f>
+        <v>0.7497459561541896</v>
+      </c>
+      <c r="F24">
+        <f>Sheet1!G25*Sheet1!G25</f>
+        <v>0.98446083999999989</v>
+      </c>
+      <c r="G24">
+        <f>Sheet1!H25*Sheet1!H25</f>
+        <v>1.3310236899999999</v>
+      </c>
+      <c r="H24">
+        <f>Sheet1!I25*Sheet1!I25</f>
+        <v>0.126025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>Sheet1!B26*Sheet1!B26</f>
+        <v>0.62384832629160991</v>
+      </c>
+      <c r="B25">
+        <f>Sheet1!C26*Sheet1!C26</f>
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <f>Sheet1!D26*Sheet1!D26</f>
+        <v>8.1332765720999998</v>
+      </c>
+      <c r="D25">
+        <f>Sheet1!E26*Sheet1!E26</f>
+        <v>17.186828489999996</v>
+      </c>
+      <c r="E25">
+        <f>Sheet1!F26*Sheet1!F26</f>
+        <v>0.47322730757639642</v>
+      </c>
+      <c r="F25">
+        <f>Sheet1!G26*Sheet1!G26</f>
+        <v>0.73479183999999997</v>
+      </c>
+      <c r="G25">
+        <f>Sheet1!H26*Sheet1!H26</f>
+        <v>0.89908324000000006</v>
+      </c>
+      <c r="H25">
+        <f>Sheet1!I26*Sheet1!I26</f>
+        <v>10.596327039999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>Sheet1!B27*Sheet1!B27</f>
+        <v>2.6035623182343679E-2</v>
+      </c>
+      <c r="B26">
+        <f>Sheet1!C27*Sheet1!C27</f>
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>Sheet1!D27*Sheet1!D27</f>
+        <v>1.379415015225</v>
+      </c>
+      <c r="D26">
+        <f>Sheet1!E27*Sheet1!E27</f>
+        <v>2.3053259889</v>
+      </c>
+      <c r="E26">
+        <f>Sheet1!F27*Sheet1!F27</f>
+        <v>0.59836006788922558</v>
+      </c>
+      <c r="F26">
+        <f>Sheet1!G27*Sheet1!G27</f>
+        <v>0.91049764000000011</v>
+      </c>
+      <c r="G26">
+        <f>Sheet1!H27*Sheet1!H27</f>
+        <v>1.2401049599999998</v>
+      </c>
+      <c r="H26">
+        <f>Sheet1!I27*Sheet1!I27</f>
+        <v>10.751840999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>Sheet1!B28*Sheet1!B28</f>
+        <v>1.7558036983874848E-3</v>
+      </c>
+      <c r="B27">
+        <f>Sheet1!C28*Sheet1!C28</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>Sheet1!D28*Sheet1!D28</f>
+        <v>3.7196522495999997</v>
+      </c>
+      <c r="D27">
+        <f>Sheet1!E28*Sheet1!E28</f>
+        <v>6.5085704161000004</v>
+      </c>
+      <c r="E27">
+        <f>Sheet1!F28*Sheet1!F28</f>
+        <v>0.5715006540297759</v>
+      </c>
+      <c r="F27">
+        <f>Sheet1!G28*Sheet1!G28</f>
+        <v>0.79263408999999996</v>
+      </c>
+      <c r="G27">
+        <f>Sheet1!H28*Sheet1!H28</f>
+        <v>0.73307843999999989</v>
+      </c>
+      <c r="H27">
+        <f>Sheet1!I28*Sheet1!I28</f>
+        <v>0.23136099999999998</v>
       </c>
     </row>
   </sheetData>
